--- a/generated_Cingulate_SUVR.xlsx
+++ b/generated_Cingulate_SUVR.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dagne\Desktop\AUD_study\Catalyst_GAN\Catalysis_cGAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC6D55F-59EB-425C-B4C0-5755488C5689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B312F8-4814-46AA-989C-3C64099DAA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$101</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -369,25 +372,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -416,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.49454999999999999</v>
       </c>
@@ -445,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.496143</v>
       </c>
@@ -474,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.49608400000000002</v>
       </c>
@@ -503,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.50075599999999998</v>
       </c>
@@ -532,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.49439300000000003</v>
       </c>
@@ -561,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.49568200000000001</v>
       </c>
@@ -590,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.49511100000000002</v>
       </c>
@@ -619,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.50777600000000001</v>
       </c>
@@ -648,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.50009300000000001</v>
       </c>
@@ -677,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.49318899999999999</v>
       </c>
@@ -706,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.50078699999999998</v>
       </c>
@@ -735,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.49785600000000002</v>
       </c>
@@ -764,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.48960700000000001</v>
       </c>
@@ -793,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.49545</v>
       </c>
@@ -822,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.49524299999999999</v>
       </c>
@@ -851,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.50127200000000005</v>
       </c>
@@ -880,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.54491599999999996</v>
       </c>
@@ -909,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.49793500000000002</v>
       </c>
@@ -938,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.52205900000000005</v>
       </c>
@@ -967,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.50197899999999995</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.51512999999999998</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.50666999999999995</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.495313</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.50335600000000003</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.49345499999999998</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.50561699999999998</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.51149800000000001</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.49367299999999997</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.499753</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.54080099999999998</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.52762100000000001</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.50101700000000005</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.51119099999999995</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.51689799999999997</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.50037299999999996</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.50011899999999998</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.50048899999999996</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.49701899999999999</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.498087</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.50032299999999996</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.49927899999999997</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.51552399999999998</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.497589</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.50118399999999996</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.49980799999999997</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.50221800000000005</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.49946800000000002</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.495259</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.50458199999999997</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.49462400000000001</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.50040600000000002</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.50819400000000003</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.53003</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.51673400000000003</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.50270099999999995</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.50136800000000004</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.49701499999999998</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.49358200000000002</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.51294499999999998</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.53166800000000003</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.49612499999999998</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.53012800000000004</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.52362600000000004</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.49956400000000001</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.50676399999999999</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.49604599999999999</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.52268499999999996</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.55046499999999998</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.50873699999999999</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.50470199999999998</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.50908699999999996</v>
       </c>
@@ -2475,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.49822</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.52282700000000004</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.50470099999999996</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.51580300000000001</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.49735299999999999</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.49215500000000001</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.49201899999999998</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.52361899999999995</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.52693599999999996</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.53206200000000003</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.49849599999999999</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.49897599999999998</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.53564999999999996</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.514795</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.50582800000000006</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.50281699999999996</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.561145</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.506328</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.48669899999999999</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.49419299999999999</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.50880999999999998</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.51651100000000005</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.50649100000000002</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.50833600000000001</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.50239299999999998</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.49966300000000002</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.49953399999999998</v>
       </c>
@@ -3258,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.50833600000000001</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.52585000000000004</v>
       </c>
@@ -3317,6 +3321,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I101" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>